--- a/CoreRulebook/Data/Disciplines/Weapons.xlsx
+++ b/CoreRulebook/Data/Disciplines/Weapons.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Whip</t>
   </si>
   <si>
-    <t xml:space="preserve">Slashing</t>
+    <t xml:space="preserve">Cutting</t>
   </si>
   <si>
     <t xml:space="preserve">Can initiate \imp{Grapple}</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Sword</t>
   </si>
   <si>
-    <t xml:space="preserve">Stabbing/Slashing</t>
+    <t xml:space="preserve">Stabbing/Cutting</t>
   </si>
   <si>
     <t xml:space="preserve">Polearm</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Long</t>
   </si>
   <si>
-    <t xml:space="preserve">Stabbing/Slashing/Bashing</t>
+    <t xml:space="preserve">Stabbing/Cutting/Bashing</t>
   </si>
   <si>
     <t xml:space="preserve">Kama</t>
@@ -215,11 +215,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -236,112 +237,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -349,23 +254,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,25 +279,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,96 +289,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -521,17 +313,17 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.08"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
@@ -1334,7 +1126,7 @@
       <c r="G26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I26" s="0" t="s">

--- a/CoreRulebook/Data/Disciplines/Weapons.xlsx
+++ b/CoreRulebook/Data/Disciplines/Weapons.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$26</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">ProficiencyVal</t>
   </si>
   <si>
-    <t xml:space="preserve">UnDifficulty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Difficulty</t>
   </si>
   <si>
@@ -55,7 +52,7 @@
     <t xml:space="preserve">Additional</t>
   </si>
   <si>
-    <t xml:space="preserve">Unarmed Strike</t>
+    <t xml:space="preserve">No Weapon</t>
   </si>
   <si>
     <t xml:space="preserve">Melee</t>
@@ -88,21 +85,24 @@
     <t xml:space="preserve">Stabbing</t>
   </si>
   <si>
+    <t xml:space="preserve">\imp{Concealed}, \imp{Poisoned}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be thrown (see \imp{Javelin})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knuckleduster</t>
+  </si>
+  <si>
     <t xml:space="preserve">\imp{Concealed}</t>
   </si>
   <si>
-    <t xml:space="preserve">Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be thrown (see \imp{Javelin})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knuckleduster</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whip</t>
   </si>
   <si>
@@ -127,7 +127,10 @@
     <t xml:space="preserve">Long</t>
   </si>
   <si>
-    <t xml:space="preserve">Stabbing/Cutting/Bashing</t>
+    <t xml:space="preserve">Any Physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-handed, \imp{Cumbersome}</t>
   </si>
   <si>
     <t xml:space="preserve">Kama</t>
@@ -157,6 +160,9 @@
     <t xml:space="preserve">Marksmanship</t>
   </si>
   <si>
+    <t xml:space="preserve">Blowdart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shortbow</t>
   </si>
   <si>
@@ -206,6 +212,31 @@
   </si>
   <si>
     <t xml:space="preserve">Reload (25), Variable Fire (+1 damage per 5 bullets, min 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sniper Rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extreme</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reload (1), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\imp{Cumbersome}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -215,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -236,6 +267,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -310,10 +346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,10 +358,10 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,194 +392,173 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,30 +566,27 @@
         <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="0" t="s">
         <v>28</v>
       </c>
     </row>
@@ -583,27 +595,24 @@
         <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -612,27 +621,24 @@
         <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -641,214 +647,196 @@
         <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>14</v>
+      <c r="H16" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>20</v>
@@ -856,16 +844,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2</v>
@@ -874,74 +862,62 @@
         <v>6</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,30 +925,27 @@
         <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -981,30 +954,27 @@
         <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="0" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1013,63 +983,57 @@
         <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,13 +1041,13 @@
         <v>56</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>3</v>
@@ -1092,15 +1056,12 @@
         <v>7</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="0" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1109,35 +1070,90 @@
         <v>58</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="H26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>60</v>
+      <c r="H28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J26"/>
+  <autoFilter ref="A1:I27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Disciplines/Weapons.xlsx
+++ b/CoreRulebook/Data/Disciplines/Weapons.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="65">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Stabbing</t>
   </si>
   <si>
-    <t xml:space="preserve">\imp{Concealed}, \imp{Poisoned}</t>
+    <t xml:space="preserve">Concealed, Poisoned, Thrown</t>
   </si>
   <si>
     <t xml:space="preserve">Club</t>
@@ -94,13 +94,13 @@
     <t xml:space="preserve">Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">Can be thrown (see \imp{Javelin})</t>
+    <t xml:space="preserve">Thrown</t>
   </si>
   <si>
     <t xml:space="preserve">Knuckleduster</t>
   </si>
   <si>
-    <t xml:space="preserve">\imp{Concealed}</t>
+    <t xml:space="preserve">Concealed, Poisoned</t>
   </si>
   <si>
     <t xml:space="preserve">Whip</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Cutting</t>
   </si>
   <si>
-    <t xml:space="preserve">Can initiate \imp{Grapple}</t>
+    <t xml:space="preserve">Grapple</t>
   </si>
   <si>
     <t xml:space="preserve">Axe</t>
@@ -130,13 +130,13 @@
     <t xml:space="preserve">Any Physical</t>
   </si>
   <si>
-    <t xml:space="preserve">Two-handed, \imp{Cumbersome}</t>
+    <t xml:space="preserve">Two-handed, cumbersome</t>
   </si>
   <si>
     <t xml:space="preserve">Kama</t>
   </si>
   <si>
-    <t xml:space="preserve">In pair, +1 DV, +1 damage</t>
+    <t xml:space="preserve">Paired</t>
   </si>
   <si>
     <t xml:space="preserve">Greataxe</t>
@@ -166,9 +166,6 @@
     <t xml:space="preserve">Shortbow</t>
   </si>
   <si>
-    <t xml:space="preserve">Javelin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longbow</t>
   </si>
   <si>
@@ -178,40 +175,40 @@
     <t xml:space="preserve">Reload (1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Revolver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reload (6), \imp{Concealed}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pistol</t>
   </si>
   <si>
-    <t xml:space="preserve">Reload (8),  \imp{Concealed}</t>
+    <t xml:space="preserve">Reload (8), Concealed</t>
   </si>
   <si>
     <t xml:space="preserve">Rifle</t>
   </si>
   <si>
+    <t xml:space="preserve">Reload (1), Two-handed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Semi-Auto Rifle</t>
   </si>
   <si>
-    <t xml:space="preserve">Reload (10)</t>
+    <t xml:space="preserve">Reload (10), Two-handed</t>
   </si>
   <si>
     <t xml:space="preserve">Shotgun</t>
   </si>
   <si>
+    <t xml:space="preserve">Reload (2), Two-handed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shotgun (Sawn-off)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reload (2)</t>
   </si>
   <si>
     <t xml:space="preserve">Machine Gun</t>
   </si>
   <si>
-    <t xml:space="preserve">1–4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reload (25), Variable Fire (+1 damage per 5 bullets, min 5)</t>
+    <t xml:space="preserve">Reload (5), Burst Fire, Two-handed</t>
   </si>
   <si>
     <t xml:space="preserve">Sniper Rifle</t>
@@ -220,23 +217,7 @@
     <t xml:space="preserve">Extreme</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Reload (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\imp{Cumbersome}</t>
-    </r>
+    <t xml:space="preserve">Reload (1), Cumbersome, Two-handed</t>
   </si>
 </sst>
 </file>
@@ -246,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -267,11 +248,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,10 +322,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -615,6 +591,9 @@
       <c r="H9" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="I9" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -839,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,7 +829,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>44</v>
@@ -876,19 +855,19 @@
         <v>42</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>19</v>
@@ -902,27 +881,30 @@
         <v>42</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>42</v>
@@ -934,10 +916,10 @@
         <v>44</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2</v>
@@ -946,47 +928,47 @@
         <v>19</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>44</v>
@@ -998,24 +980,24 @@
         <v>7</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>44</v>
@@ -1024,27 +1006,27 @@
         <v>3</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>44</v>
@@ -1053,107 +1035,78 @@
         <v>3</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I27"/>
+  <autoFilter ref="A1:I26"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
